--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value243.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value243.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.151230884930407</v>
+        <v>1.169794201850891</v>
       </c>
       <c r="B1">
-        <v>0.1605609959580869</v>
+        <v>2.161981344223022</v>
       </c>
       <c r="C1">
-        <v>0.1824797945506188</v>
+        <v>3.324399471282959</v>
       </c>
       <c r="D1">
-        <v>0.2892998772355704</v>
+        <v>3.660769701004028</v>
       </c>
       <c r="E1">
-        <v>0.9895217832074917</v>
+        <v>1.172302007675171</v>
       </c>
     </row>
   </sheetData>
